--- a/test/stats false-false.xlsx
+++ b/test/stats false-false.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="14220"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="152">
   <si>
     <t>Word counts</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>Collisions</t>
+  </si>
+  <si>
+    <t>linguistics</t>
   </si>
 </sst>
 </file>
@@ -1310,11 +1313,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,7 +3530,7 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H50" t="str">
         <f>words!A46</f>
-        <v>linguis,</v>
+        <v>linguistics</v>
       </c>
       <c r="I50">
         <f>words!AR46</f>
@@ -4856,10 +4859,10 @@
   <dimension ref="A1:AR95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Y35" sqref="Y35"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10635,7 +10638,7 @@
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
